--- a/Sơ đồ phân cấp khách.xlsx
+++ b/Sơ đồ phân cấp khách.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2913DB-546F-4596-A7B8-0741EC298B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA03540-2976-4019-92A8-47F4C91CCFEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Khách 1</t>
   </si>
@@ -994,6 +994,112 @@
         <a:xfrm>
           <a:off x="21012150" y="7981950"/>
           <a:ext cx="2486025" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E807844-6192-4532-AF42-5BB11CE6DE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="8934450"/>
+          <a:ext cx="9525" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7FBE724-318F-451B-B6A8-7D4ADCF15E3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="8943975"/>
+          <a:ext cx="0" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1287,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1505,9 +1611,7 @@
       <c r="AM47" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AN47" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="AN47" s="4"/>
     </row>
     <row r="49" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F49" s="10" t="s">

--- a/Sơ đồ phân cấp khách.xlsx
+++ b/Sơ đồ phân cấp khách.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA03540-2976-4019-92A8-47F4C91CCFEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED028EBB-767F-454A-AF0D-A96353EE5DA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
